--- a/Documents/4. 요구분석/1. 기능적 요구사항 정의/B조 기능적 요구사항 정의_V1.0.xlsx
+++ b/Documents/4. 요구분석/1. 기능적 요구사항 정의/B조 기능적 요구사항 정의_V1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenCompany\Documents\4. 요구분석\1. 기능정 요구사항 정의\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenCompany\Documents\4. 요구분석\1. 기능적 요구사항 정의\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAE3C31-A8F8-4714-9A36-0798B7FC7F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637BEBDB-23EF-41A9-9282-04F72060826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1785" windowWidth="23130" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능적 요구사항 정의" sheetId="1" r:id="rId1"/>
@@ -506,12 +506,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -593,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,6 +670,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -955,7 +967,7 @@
   <dimension ref="B2:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1079,7 @@
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -1141,7 +1153,7 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -1189,7 +1201,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -1301,7 +1313,7 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="15" t="s">
